--- a/global_business_news.xlsx
+++ b/global_business_news.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-26" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4434,19 +4435,16 @@
           <t>Unexpected Eurotunnel strike disrupts train traffic under Channel - Reuters</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>https://www.reuters.com/world/europe/unexpected-eurotunnel-strike-disrupts-train-traffic-under-channel-eurostar-2023-12-21/</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>2023-12-21T17:33:00Z</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4506,19 +4504,16 @@
           <t>New York lawmakers propose new legislation aimed at having Chick-Fil-A open seven days a week - Salon</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>https://www.salon.com/2023/12/21/new-york-lawmakers-propose-new-legislation-aimed-at-having-chick-fil-a-open-seven-days-a-week/</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>2023-12-21T16:55:00Z</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4707,19 +4702,16 @@
           <t>Angola leaves OPEC, in blow to producer group - Reuters</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>https://www.reuters.com/world/africa/angola-says-it-is-leaving-opec-angop-news-agency-2023-12-21/</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>2023-12-21T14:45:00Z</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4770,7 +4762,6 @@
           <t>{'id': None, 'name': 'Bea.gov'}</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Gross Domestic Product (Third Estimate), Corporate Profits (Revised Estimate), and GDP by Industry, Third Quarter 2023 | U.S - Bureau of Economic Analysis</t>
@@ -4786,7 +4777,6 @@
           <t>https://www.bea.gov/news/2023/gross-domestic-product-third-estimate-corporate-profits-revised-estimate-and-gdp-0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>2023-12-21T13:30:00Z</t>
@@ -4860,19 +4850,16 @@
           <t>Bitcoin traders see $48K BTC price before ETF 'sell the news' event - Cointelegraph</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>https://cointelegraph.com/news/bitcoin-traders-48k-btc-price-before-etf-sell-the-news</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>2023-12-21T12:40:17Z</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5220,4 +5207,874 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>urlToImage</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'NorthJersey.com'}</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John Connolly</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Powerball jackpot climbs to $638 million for Christmas Day drawing - NorthJersey.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The Powerball jackpot is now the 18th largest U.S. jackpot ever.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/story/news/nation/2023/12/24/powerball-jackpot-hits-638-million-for-christmas-day-drawing/72023668007/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/gcdn/-mm-/5a5fb12c75915ee3924b435f322bceec27a0ba21/c=0-0-520-292/local/-/media/2020/08/25/CantonRepository/ghows-OH-200619197-dd960e7d.jpg?width=520&amp;height=292&amp;fit=crop&amp;format=pjpg&amp;auto=webp</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:01:53Z</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>The Powerball jackpot will be an estimated $638 million for the Christmas Day drawing.
+No one won it all in Saturday night's drawing so the jackpot just keeps on rising. It is now the 18th largest U… [+7351 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'YouTube'}</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Major Tech Hiring Slump in India: 90% Drop in Job Postings in 2023 | Vantage with Palki Sharma - Firstpost</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Major Tech Hiring Slump in India: 90% Drop in Job Postings in 2023 | Vantage with Palki SharmaIndia's tech sector is facing a dramatic decrease in hiring. Go...</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1z9KLmJE0sw</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/1z9KLmJE0sw/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:50:00Z</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'The Seattle Times'}</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Seattle Times</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Power outage hits thousands of Seattleites on Christmas morning - The Seattle Times</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.seattletimes.com/seattle-news/power-outage-hits-thousands-of-seattleites-on-christmas-morning/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:19:51Z</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Daily Beast'}</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AJ McDougall</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Airbus Christmas Dinner Gives More Than 100 Employees Food Poisoning, Officials Say - The Daily Beast</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>French health authorities believe as many as 700 workers may have been left suffering from food poisoning after the company meal.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.thedailybeast.com/airbus-christmas-dinner-gives-more-than-100-employees-food-poisoning-officials-say</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://img.thedailybeast.com/image/upload/c_crop,d_placeholder_euli9k,h_1969,w_3500,x_0,y_260/dpr_2.0/c_limit,w_740/fl_lossy,q_auto/v1703524073/2014-09-25T120000Z_850174562_PM1EA9P17WJ01_RTRMADP_3_AIRBUS-GROUP-A320NEO_nmvaf8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:10:55Z</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Scores of people working for a French aerospace company were left sick with apparent food poisoning after indulging in a sumptuous Christmas feast, according to authorities.
+The dinner, organized fo… [+1866 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'YouTube'}</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>India's State-Owned Oil Firms Not Using Rupee | Vantage with Palki Sharma - Firstpost</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>India's State-Owned Oil Firms Not Using Rupee | Vantage with Palki SharmaIndia's petroleum ministry has informed parliament that the country's state-owned fi...</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3RdwonFiORQ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/3RdwonFiORQ/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:50:00Z</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'HuffPost'}</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sebastian Murdock</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Flown Alone: Unaccompanied 6-Year-Old Put On Wrong Spirit Airlines Flight - HuffPost</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amid the holiday travel rush, young Casper ended up in Orlando, Florida — four hours away from his grandmother.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.huffpost.com/entry/6-year-old-boy-flying-alone-put-on-wrong-spirit-airlines-flight_n_6589a296e4b014ec45a261eb</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://img.huffingtonpost.com/asset/6589a50823000031008063b7.jpeg?cache=95E1PoJhDP&amp;ops=1200_630</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:33:15Z</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>An unaccompanied 6-year-old flying for his first time to see his grandmother in Florida was put on the wrong Spirit Airlines flight Thursday, WINK News reported.
+Amid the holiday travel rush, young … [+3587 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Tastingtable.com'}</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Julia Duda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12 Stouffer's Frozen Entrées, Ranked Worst To Best - Tasting Table</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>We&amp;amp;#39;re all busy, and sometimes we just don&amp;amp;#39;t have enough time or energy to cook dinner. Frozen meals are quick, and we&amp;amp;#39;ve ranked the best Stouffer&amp;amp;#39;s dinners.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.tastingtable.com/1475310/stouffers-frozen-entrees-ranked-worst-best/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.tastingtable.com/img/gallery/12-stouffers-frozen-entrees-ranked-worst-to-best/l-intro-1703073446.jpg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:15:26Z</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The idea of a frozen pesto pasta entrée is definitely an intriguing one, as it offers a much-welcome change from the expected cheese or red sauce that frozen fare typically has to offer. So we do app… [+1077 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'The Daily Dot'}</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Braden Bjella</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>‘Here’s what happened to the old Panera’: Customer has a theory for why he claims Panera Bread went down in quality - The Daily Dot</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Internet users have long complained that the Panera Bread of today is not the same restaurant as the one they remember from a few years ago.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.dailydot.com/news/why-did-panera-quality-go-down/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://uploads.dailydot.com/2023/12/Panera-Bread-quality.jpg?auto=compress&amp;fm=pjpg</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:02:21Z</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Internet users have long complained that the Panera Bread of today is not the same restaurant as the one they remember from a few years ago.
+Users have complained about the restaurants perceived sma… [+2730 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>{'id': 'cbs-news', 'name': 'CBS News'}</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alain Sherter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Southwest Airlines cancels hundreds of flights, disrupting some holiday travelers - CBS News</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Southwest Airlines again hit with flight disruptions, though most U.S. passengers are enjoying a smoother takeoff for their holiday travel plans.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/southwest-flights-canceled-airlines/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://assets2.cbsnewsstatic.com/hub/i/r/2023/04/18/ad2fbfbe-0503-4e29-8ec7-5ee79e35fa68/thumbnail/1200x630/2858bf12109521e55f43a53c5c171021/ap23108527182236-copy.jpg?v=5382e209c94ee904b3a96a69f8ca0ce0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:59:00Z</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Christmas Day flight delays, cancellations at Chicago airports 
+Christmas Day flight delays, cancellations at Chicago airports02:37
+After thousands of U.S. flights were canceled or delayed over the… [+2517 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>{'id': 'cnn', 'name': 'CNN'}</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Taylor Nicioli</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What to do when someone gives you a gift you don’t really want - CNN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sometimes a gift from a loved one can leave you feeling disappointed — even if the intentions were good. Here’s what to do when you receive a gift you don’t want.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/12/25/health/gift-disappointment-holiday-expectations-wellness/index.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://media.cnn.com/api/v1/images/stellar/prod/231213142747-exchanging-presents-stock-121323.jpg?c=16x9&amp;q=w_800,c_fill</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:35:00Z</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sign up for CNNs Stress, But Less newsletter. Our six-part mindfulness guide will inform and inspire you to reduce stress while learning how to harness it.
+When Abby Eckel saw the small jewelry gift… [+5220 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'YouTube'}</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Can Cava Become the Chipotle of Mediterranean Food? | WSJ The Economics Of - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cava has quickly grown to about 300 locations through an acquisition of another Mediterranean fast-casual restaurant chain, Zoe’s Kitchen. The chain has turn...</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-9Mbls9xiAk</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com/vi/-9Mbls9xiAk/maxresdefault.jpg</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:00:00Z</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Livemint'}</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vaamanaa Sethi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Azad Engineering IPO allotment date to be finalised; Here’s how you can check status | Mint - Mint</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>On the allotment date, investors will be informed about the number of shares allocated to them in comparison to the bids they placed.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/market/ipo/azad-engineering-ipo-allotment-date-finalised-here-s-how-you-can-check-status-11703403558687.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/lm-img/img/2023/12/24/1600x900/Azad_Engineering_1703403794961_1703403795108.png</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-12-25T14:25:02Z</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The share allotment of Azad Engineering IPO is expected to be finalised on December 26. Investors are assigned shares through a lottery system, and the entire procedure was overseen by the registrar.… [+2526 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Livemint'}</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mint</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Adani Green concludes 8 GW power purchase pact with Solar Energy Corp | Mint - Mint</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>The company said that overall it has tied up power purchase agreements, or PPAs, for 19.8 GW of renewable energy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/companies/adani-green-concludes-8-gw-power-purchase-pact-with-solar-energy-corp-11703513286775.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/lm-img/img/2023/12/25/1600x900/GLOBAL-ENERGY--8_1673502659614_1673502659614_1703513396144.JPG</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-12-25T14:14:05Z</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NEW DELHI : Adani Green Energy Ltd has executed the power purchase agreement with Solar Energy Corporation of India for the supply of 1,799 megawatts of solar power, the final part of an 8,000 MW man… [+1803 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Etnownews.com'}</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Abhinav Ranjan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nifty at 24700: Shifting orbit on election thrust; ICICI Direct bets big on RIL, PNB, Hindalco and 6 others - ET Now</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nifty Outlook 2024: 2024 being an election year, will have a significant bearing on sentiments in equity markets. It has been observed that benchmark indices have performed well in election years despite spikes in volatility</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.etnownews.com/markets/nifty-at-24700-shifting-orbit-on-election-thrust-icici-direct-bets-big-on-ril-pnb-hindalco-and-6-others-article-106271123</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://etstatic.tnn.in/thumb/msid-106271123,width-1280,height-720,resizemode-75/106271123.jpg</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-12-25T14:06:45Z</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nifty at 24700: Shifting orbit on election thrust; ICICI Direct bets big on RIL, PNB, Hindalco and 6 others (Pic: iStock/ET NOW News)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Jalopnik'}</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tom McParland</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>This Is The Best Car Buying Advice From Jalopnik's Own Car Buying Expert - Jalopnik</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Know the real deal before heading to the dealership.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://jalopnik.com/this-is-the-best-car-buying-advice-from-jalopniks-own-c-1851115993</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://i.kinja-img.com/image/upload/c_fill,h_675,pg_1,q_80,w_1200/7a432b3cf7baca7e3627550b393c2abe.jpg</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-12-25T14:00:00Z</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Livemint'}</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Livemint</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FirstCry IPO: Sachin Tendulkar, Infosy founder and others likely to buy shares of e-commerce company ahead of issue | Mint - Mint</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SoftBank has reduced its ownership in FirstCry to less than 25 percent by divesting shares valued at  ₹600 crore prior to the public offering.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/market/ipo/firstcry-ipo-sachin-tendulkar-infosys-founder-and-others-likely-to-buy-shares-of-e-commerce-company-11703511477868.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.livemint.com/lm-img/img/2023/12/25/1600x900/2-0-1263207898-firstcry-0_1679551523371_1703512150724.jpg</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:47:30Z</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mother and child care e-commerce platform FirstCry, which is all set to hit Dalal Street in the upcoming year, has prompted SoftBank Vision Fund to divest a significant portion of its shares in advan… [+2512 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Moneycontrol'}</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sunil Shankar Matkar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Motisons Jewellers likely to see blockbuster debut on December 26 - Moneycontrol</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>The grey market investors also seem to be bullish on the jewellery retailer as they have given a premium in the range of 100-140 percent over the issue price of Rs 55 per share, analysts on anonymity said.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.moneycontrol.com/news/business/ipo/motisons-jewellers-likely-to-see-blockbuster-debut-on-december-26-11953511.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://images.moneycontrol.com/static-mcnews/2023/11/Gold-jewellery-770x433.jpg</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:38:19Z</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rajasthan-based Motisons Jewellers is likely to start the first day of trade with more than 100 percent premium on December 26. The robust IPO subscription numbers, strong financial performance in th… [+3245 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'CNBC'}</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ana Teresa Solá</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3 tax moves to optimize your charitable donations for 2024, according to top-ranked advisors - CNBC</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Charitable giving strategies can help taxpayers maximize donations next year. Here are three things to work on, according to CNBC FA 100 advisors.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.cnbc.com/2023/12/25/three-tax-moves-to-optimize-your-2024-charitable-donations.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://image.cnbcfm.com/api/v1/image/107350531-1703170035766-gettyimages-621904232-000108739911_Unapproved.jpeg?v=1703171862&amp;w=1920&amp;h=1080</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:30:02Z</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>While tax breaks are not the main reason for charitable giving, some strategies can help investors optimize their donations.
+It's too late to execute some strategies with the end of 2023 just days a… [+3307 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Moneycontrol'}</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Moneycontrol News</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Zomato reveals 'nation's biggest foodie' in 2023. Mumbai man placed over 9 orders everyday - Moneycontrol</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Identified only as Hanees, the Zomato customer in Mumbai placed 3,580 orders via the food delivery platform.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.moneycontrol.com/news/trends/zomato-reveals-nations-biggest-foodie-in-2023-mumbai-man-placed-over-9-orders-everyday-11953501.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://images.moneycontrol.com/static-mcnews/2023/10/382845180_576860281168909_1454539778708705225_n-770x435.jpg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:21:57Z</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Zomato has revealed its food-ordering trends in 2023 and shone the spotlight on a man in Mumbai who placed 3,580 orders using the food delivery platform -- that's more than nine orders each day.
+Ide… [+1520 chars]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>{'id': None, 'name': 'Hindustan Times'}</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HT News Desk</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>India gets 2nd unicorn of 2023 as InCred raises ₹500 crore - Hindustan Times</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>InCred unicorn: The feat came after it raised $60 million at a valuation of 1.04 billion dollars.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.hindustantimes.com/business/india-gets-2nd-unicorn-of-2023-as-incred-raises-rs-499-crore-101703510310241.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.hindustantimes.com/ht-img/img/2023/12/25/1600x900/Incred_1703510462259_1703510475796.jpg</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-12-25T13:21:37Z</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>New Delhi: InCred has struck a valuation of over 1 billion dollars becoming the latest unicorn of the country. The feat came after it raised $60 million at a valuation of 1.04 billion dollars. It is … [+1508 chars]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>